--- a/data/input/Cotizaciones 2025 - Gytres.xlsx
+++ b/data/input/Cotizaciones 2025 - Gytres.xlsx
@@ -32779,114 +32779,22 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c97ac79a-b521-43e2-b269-2370fa5bb204" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab9eddc0-6e7f-40e8-8a25-a6194df63471">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CFB479C48E64FB4B8FA0C717E026C76E" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0346b9b43770a469b7a1b4af488b1f2e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab9eddc0-6e7f-40e8-8a25-a6194df63471" xmlns:ns3="c97ac79a-b521-43e2-b269-2370fa5bb204" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84ed265c178dad4b7c6864367c3fecb1" ns2:_="" ns3:_="">
-    <xsd:import namespace="ab9eddc0-6e7f-40e8-8a25-a6194df63471"/>
-    <xsd:import namespace="c97ac79a-b521-43e2-b269-2370fa5bb204"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B80BB50E4745CF408BAEF8515FF60418" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9508e1a42f2e366c06c601d6d09e661">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a94077bc013d83a5bf6d69a3e33f5f9e">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
+              <xsd:all/>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab9eddc0-6e7f-40e8-8a25-a6194df63471" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ecb3ed0d-05b5-4e3c-8223-404b83b067cd" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c97ac79a-b521-43e2-b269-2370fa5bb204" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4003660e-e974-43b8-80b1-cc0500821b99}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c97ac79a-b521-43e2-b269-2370fa5bb204">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
@@ -33009,20 +32917,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC70C59-AB43-4775-BF11-EF1B8F337453}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ab9eddc0-6e7f-40e8-8a25-a6194df63471"/>
-    <ds:schemaRef ds:uri="c97ac79a-b521-43e2-b269-2370fa5bb204"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D584E9-3AF2-4EC1-983B-E577217DB8D4}"/>
 </file>